--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/2_Adıyaman_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/2_Adıyaman_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC9D92BE-DA51-469B-A135-9270A9C441C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6E5B744-4E9F-4E74-8403-31E483FDC256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="698" xr2:uid="{DF662D29-6DBA-4455-BB9F-07D839B3EE47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="698" xr2:uid="{75914A1D-C272-4272-B0D2-FAE0EAC68D62}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -975,14 +975,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{6119EA2E-F775-4C56-8136-FB046BD5EE16}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E57A98FE-6A52-4EEB-80EC-FBAD777D7514}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{AD514C92-BD48-4CFA-924E-91B62B4B2C25}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{59995E56-14E8-49F0-8C0C-2DA7221F8E0C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{EED745E8-9486-46E1-B581-6D61C9491832}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{E051170D-6536-4656-BA96-A76789BBF61A}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{1716F3A6-FF40-45E2-93D9-9C1A3E43D939}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{BC3CAA34-78D7-4651-97B5-9C3D5DAE9098}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5C5252C5-BD93-472B-8A2F-CB3A8243CB80}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{57C1C731-4963-4BE8-9A47-7FBFF3D21185}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{C476192D-3A5A-4764-A15A-5000823C71D1}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{8CCF0FCE-CC5A-410F-9D38-EA853C74E853}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{85D020FF-CFD3-42F1-AFAE-C0A8B5E37E82}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{EC02F803-2500-457C-B4D6-F8C5B97C30AC}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{C305605C-C70A-4862-B8B1-62D9255F6117}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{0CA66215-B29A-4365-AF06-E61343910FBD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5219C51A-9AFB-4BB0-A360-768CEB1972B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D617AB-EC29-48DC-9BB4-A38F075D86CD}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2623,17 +2623,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B88123C-E31D-4B34-B881-A598D5046B4F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{89842C79-A59C-4306-9A91-7B020D0FF268}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BF7B6B83-E4D3-4528-BA3D-6FF3082CA8E5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A6A1ECA-19BF-4934-987B-E5C0A291A192}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5D62A3E-E06A-446E-8532-5501BB698879}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1DFB4C05-6284-4467-8746-00FFAC2336F2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3DF4687F-9144-4D35-9D28-5981510A5C0B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E15C16E0-7DBF-47C9-BAF2-59E939F55463}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F66C3FFB-1EF2-4BCD-86A8-45542DC55437}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9414D693-8344-4303-8D7D-B50B685E3F03}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC4A9C8C-E67B-4867-ADD5-19DB43198234}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2562009A-74EA-4AD0-AD49-ABBCEB2AB3B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F75390F-672D-4B1B-8D5A-8369FEEC3AA7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9E6AFF53-2436-426E-9B2F-10166707BE2E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{41C03254-EF0F-4192-B9C3-988AF3A0277E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D4DED56-A7AC-49E7-A1A5-61A867D69B8F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2334B0BD-AD32-487F-BC28-0D564256657E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C215C4F7-0174-473A-A6E5-5743309EAC35}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BBE11019-8E0F-4E3F-B372-0AEE73E47A71}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{379E2DAD-4EF9-46A3-9034-F66A6B18C065}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DB3756FD-DB47-4746-B5A6-CE0A16BB4B3D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80C4E57F-C404-4122-994C-6CF015C1EDFC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2646,7 +2646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D15545-F18F-48F3-B737-1A2F34D22B29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DADDD88-4BA9-4247-8531-94803579D8D5}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -3905,17 +3905,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2A531886-10AE-485F-85C1-465CE6A092DC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C561C54-5F91-4059-912B-C66402AD5DE3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C8D1C3D4-442D-4626-8EC7-8914B436A6FE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{094F1407-AD76-4FB3-9A3E-F162C9558460}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E0017B22-D038-4E87-894B-D857DC385C49}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{71A94AE8-96BE-4D5A-985E-D3361B43B949}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1167AFE0-5C41-4F72-AA2F-FF2E62307176}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7483D68B-18C0-4BC3-B4D2-82E91A5E7B02}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9697D9A3-6068-4946-8D6E-045AFEDDE709}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9EEB1D83-0083-445C-91FF-B637BE80992E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81AFF9FD-1AA2-4004-98CF-D4584FAD5496}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55827CDE-1142-402B-ADD5-81C2AFC8BB6B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48485253-BBBA-4149-8FEC-F2B7A55EAF49}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0E0A6898-4C55-4852-B92A-8BCC7AE2B781}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8600D268-1C9D-4F67-8224-ADF3523123EA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{57D221DB-4A9F-4BCE-A743-9E7943D2390F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{251CFDF6-D43E-42F0-B1A8-187D5A386FFD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F32F29C6-7144-404D-8F3F-06F8BEE0DC68}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6464CE5D-6CF6-4A28-BDA1-8552928C25FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{13B7B2C1-1933-458B-BEFD-26BD7D9EE1A4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{14E413F9-255E-493C-B02C-111F23AD4046}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FD235AD-8F16-4DA8-ACC0-226BFE0F7FC6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3928,7 +3928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DE35ED-9674-4161-907B-F8885D5B34D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF769B76-52DC-4555-9B97-056D7EA61354}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -5181,17 +5181,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E07091C-7458-48A5-BDCC-58E2BC7787FC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4893E90-1BCF-413D-9224-3CC8FAFE2D6C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C6BC2623-EAB3-420C-95DD-78AAA0849F01}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{75B5AB8B-54B8-49D9-B271-122F6AD4DF0F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{59CA2A5D-1AB7-4D2B-AC9A-601DA2A784EF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8800F7C7-124F-4E22-A277-74C46201ABD5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47B97EF9-7B27-4D4D-9DB6-838F5299A7A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96462EEF-27CD-49A1-9F01-9D42DFAB7E64}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1BD1BE99-AEE9-40EE-92D5-1540F38B1A83}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{73047B20-68FA-4F65-8DAE-A7A5E5242AD1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBD525E4-62C2-4606-A999-2CFCFB8782E7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F8FF69A3-778E-4EC9-B9BB-9D63C1F3B843}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0EE95B1B-BA36-435E-AAC0-4D92718A1F29}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D00F9877-D54D-4AEB-94A8-3CC5F7FD0FEF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{31D91987-6A4C-4B6E-8646-FEAB8707B7D3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1B49493-D901-49A3-A1BD-21A77F68CE86}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{43E270F3-7170-4ABF-9C1A-DE901038D63D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17CFCFB7-AEC3-4FFE-BAD8-5A3DF03FCAA6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55B5B963-F763-47CE-82AD-5217B0368DB8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{405E14AC-E48D-40B8-899D-18BDE3499F1A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A54C2374-114F-43F7-A6C6-4DA0CBB142FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04284AF1-598D-4615-8C9A-C88BAA2CC1C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5204,7 +5204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4748CA33-768E-47F8-B9F8-47FCDFB9A22A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C5AA82-D086-4339-B4D6-33F71594536B}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -6451,17 +6451,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE354C5C-403D-4FFE-A9A8-4C4CFFDBC579}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07667DA5-C02A-4AFA-921C-60AD58587AA6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4A161245-D34B-4E7D-8B9A-5D2F03D60522}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A202FAB0-2273-42B7-907A-376467E850E9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{848A9FE8-6536-4F00-A5CE-932BFFA140CF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{43F91486-D268-4C8C-B498-A930E2601B34}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54166FB9-0F62-471C-8132-ECE2B48AEFF1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5B030D0-C93D-45B9-A5FD-3FA97F0EE89A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{324F548C-7CA5-4AD7-88CD-B900E5674121}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7D59B087-CFDF-4AB8-BE64-D08D631FF0AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F7B26DBA-CD89-4F7E-B81E-7126741504F3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A7DBB771-3A0D-48D2-BB27-8A8964C1EDC9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA1EFB68-B5D2-4531-BD66-6C0207456870}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F5A2397A-91BC-4B1F-94F9-CAD012DF1A37}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{91C3D551-7BDF-436E-9F9C-E7A9017B631C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C59CC4BE-4B54-47F6-B80F-22EF9CA556BA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1E215F43-EFC6-425D-859D-033352DB6AF1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0A57EC8-A0C3-473C-86EB-6725BAD70EF0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E113D58E-5957-4F54-AFAB-CEA67D72660C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EC122042-FD95-435A-8B57-6D6FBB93807E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3B92CA0E-1535-4660-BFFE-5A8E6893E1C2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{07368EC0-7983-45B9-9530-B028A9E448B2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6474,7 +6474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5658046-01DD-4B0B-9D05-BDD7665BCB32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC8C5C3-97C1-4322-82D4-AA03F794B15A}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7742,17 +7742,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6097BBE0-B3BD-4AD1-AA7D-412D0F87C6DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{797544DD-3D7D-45BF-89F4-E2FD1C2C4686}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2C49311-DE5C-4371-B523-9B1C444D6A7C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{28BAAA46-5F1D-4B3C-81AC-3A465C8A5425}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{85404515-9F84-44F0-B3FF-95CB7A7B1B9F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{45E1139E-AED9-452C-8931-E7C3E3E6CB34}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23012BB9-4337-4B10-91A6-57E1A5F1B33A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F0AF533A-81F0-45B2-A8F5-E33D8B672FE6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6525E559-0081-46A9-AD13-976E5F948754}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{54FA1EF5-DAA8-4374-831E-BADCA2B8E350}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF4725FC-C330-4AF7-9DBD-ED0F442D3756}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8AA64AE-D363-4331-9796-308A0B6E5A40}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DEC86B56-CA97-44B9-91D7-E767FA55C175}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2320B592-EEF0-44BB-A845-F6A0CBB62C10}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{70993732-4F60-4C0E-B06F-8AA97B54D8A8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E0EDF06E-8AA9-4A6E-8F18-5E7B2254BEEF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2AB5BAE5-CE0F-4331-99FF-889A1051E7C0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C1BE0C9-7164-490E-9867-17DF0AB5BF4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{65AA5067-9BD6-493A-A272-DD224C025210}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{18C32E59-4ED5-48DE-AB83-97769ACFBFC1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CB3BD141-7BA0-4BED-B250-1AC45F577107}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69EE4143-7B72-47C6-B444-E4E91B568EA9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7765,7 +7765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A03877-25D1-4312-81DB-CECA6FF8E378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE50CECC-4C52-423C-A939-AA4337FBD91C}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9033,17 +9033,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{959CAE18-8E9C-4099-BB74-252492E0153F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{01F52A9A-103D-413A-AABA-61E283C9096A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1E6DF77C-919A-4770-9815-6C96B4FF21FF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DB1431B5-14B0-4995-8754-710464A35DCD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1E56409B-3887-480D-A6EA-5FB76C36466F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{095780D4-8C28-489A-B2D0-9E2543DD07A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7C82073-A6C6-4C25-BF54-2F3CE143127D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE3C22DC-540A-4BEF-88C1-003C83E2A786}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{61645250-7FBD-4005-B848-096FD14880B3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{29F4702B-FA9D-4A03-B4A9-B2343AAA4377}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D497B38A-42C1-4FB7-BC0A-74F0A0C647EB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9036C079-A846-46F4-8BC8-58011AA71A3C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4FFB7A78-AC9F-4B68-B599-C18AF7536E67}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9EFC3168-F4C6-4D1B-800E-C8A8FAE78DE3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4C03E383-A30B-484A-963F-B39974CB96A0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F2972678-5F42-4FB4-8CE0-22A9B89944BE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{51E5EA85-901D-4FFF-9A6B-30E1665BCB6D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F18867B8-EDE6-45F7-8731-54EC05C4AB54}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94093F2C-BC5C-4B30-B630-49D5262920D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DBE5E938-EB90-4357-9D36-27925961FE38}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BA21A5DB-A61B-4974-8172-79818ED978B0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01FD9326-0817-4844-B439-43EAEAAB80B8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9056,7 +9056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F4B4B1-EAA4-469D-9B07-6F66CF432943}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2093768-1D5C-41BB-9BEC-43064AE6F96B}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10324,17 +10324,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D2FDB81-2C2A-4ECD-9818-66DC611D8820}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47F41E02-C070-472C-968D-DEAF4490D2AA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FCD33979-3E03-4C7B-AFDA-755CF4873A88}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2B2C3957-628B-4288-9297-437BBFDCF3F5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B040ACC1-14BF-48D0-9677-78B677ECB1F4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{603CEC36-20F7-401B-8343-916A0461093B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58A42903-B01D-4598-B731-054A7DD1212C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0C063E3C-0B37-459D-B5DC-8FF21137A39B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BF8FC9D0-8B20-4D30-A8A2-6C69BE55D2CD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{12A878B3-46C0-4646-A70A-8A92C20EBD78}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E94EDCEC-2A54-47ED-A963-F3CDBBDA5985}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1C86FAEF-CA52-4C35-8A46-5F3C675C0967}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70BA42F8-F145-4847-BF2F-6DC8D2797EFE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CAA7B180-6AAD-45EB-96A1-E9366C4E3DAF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E29317FE-3B58-45B2-B536-F182C5E46AE5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC753369-CBCB-4BE2-94CD-8BFD475D33CC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E485F0B7-6A33-4E43-9BF0-A2FBA1DF1CFE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7AE0C75F-660B-4ACF-8505-8BF6CAA959E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C50EF71-4CFF-4731-A84E-10311C313FEA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{89070DC5-B479-4002-853A-8894D96F0449}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{50C8F001-A757-467B-9852-FC0E982A9F61}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D808357-3BCA-49E1-A161-E25B470F8DE9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10347,7 +10347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9756B81F-4192-4703-A3C5-1409A14E04CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA384EE3-DAF4-4F98-900A-6E989D6F5219}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11611,17 +11611,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{99FDBA86-B021-44AB-927B-4DDBD66A4180}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1765483F-80F1-4787-B19B-373B63DD8382}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6CDAC2B8-4902-4079-856A-D212B826955D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BBE210C5-64A2-4804-8FF4-75A6719B9117}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{644D6278-1688-4A94-B6F3-89F44D43AA8C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FAFC4DAE-6CE6-41AF-A67F-888CA170D5F9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{190B9679-3523-488E-B721-B9827E8329AC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F790BF34-5F40-41EA-81A7-95463D1AF662}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CECD64BF-8FF7-4423-B669-24C4A57FD3FC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AA58E301-D8B7-4FE5-AF62-481DB6CE196C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1889F5BB-41A6-4DBC-8591-F7BF46202387}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8EA183BE-1EF8-410C-B9E3-6ABFC72F385F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1626189E-6C97-4220-B892-6CF3E26B811F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8B4D7CDE-25C9-4259-B6FA-166A1EFF1423}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8305270E-9A88-453D-B298-10683CB5F89A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{35B37028-DEB5-4CE6-AA7C-1330DA24C8EF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42E3193B-EB5E-4C0F-B469-CDD87FE1C55E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B7792FF2-1FDB-4C92-AF8A-47B9C5EC0ABB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D18DCB86-F80F-4714-8731-7E7B200BA08C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0A4ED2AA-1FA5-49D6-9937-6918640A2154}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6EF815A7-0913-4A46-86EC-8540EBCA0DF4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{12FFB930-3C56-463A-81B5-322A97D8CAB6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11634,7 +11634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B081A3-E24F-4F81-95F8-B4AE00037962}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707ECEB8-C655-4C61-A25B-061D97F9938B}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12898,17 +12898,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C3617F8-0BB7-4F1C-B944-3B7F236DBAEB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9BE6A09-679D-4216-9487-209858B48608}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2596A7A3-08AC-40C4-B970-D35CB00BF0EA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A9498F84-C75C-45E0-B83F-0C4D824356B0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4DB4C062-5529-456C-AF13-CDAAF32850DE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{75CC1B9F-85FA-488B-A520-905D6DDC4B60}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B50382D-815B-4DA8-B7A3-2BB085BD98D5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5CA0D31A-BEE4-4780-8B8C-A3B0B69C0F77}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C3B60109-0A80-4D82-B68F-2B567D7C7FAE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1AF1D326-DE70-4333-96F3-04DD224FD475}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A817B6CF-EF59-454B-ADC7-7B3797C07351}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA7370CC-A8E4-4805-AA01-EF3205C0B12A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{139C537E-5742-44C4-9107-3DCE61F308AA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{22649A36-8E4F-419A-AA80-683BCAC89CFD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AEC12669-D5FC-486A-BB12-3496614A00B2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F957C7D3-ADF6-43BC-9558-7796E0574BA8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C26AB755-8489-40B0-B4E3-D517178FC95F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E361DA51-C5B8-451F-A169-6C19229BF983}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF8EB2DF-C49F-458D-B966-6E2877FC5984}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B0FEEB1A-D7E9-4CA0-B231-89ACC8504ED7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5A1F4AB7-00FE-4AF3-918A-657208E72BAB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B4DDB0A-9B62-495A-A5CA-39ECCF81CF5D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12921,7 +12921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019DB853-778A-40F7-8725-D5F3A9EF516A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58749008-C438-4528-8E85-332DC1009BAE}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14185,17 +14185,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B0BDAE79-8854-4E83-9BD8-79AECEF96BC2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E18CE21C-61B0-4B2B-95C9-E186C95E9E7E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E02A6E2E-5105-499D-A851-040E0BABE910}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{406A5D24-CCA0-4F1A-A5C3-B4419FB4F7E2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ACD8054E-754F-4A79-B3C9-01EA37527C3B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0122B1A9-83B6-4E67-B0B1-011C1B855438}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99404B5B-AC4D-4F6D-BBE0-5258B28F3127}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{428001F6-E344-45E7-9E31-607A670B63FE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{233319F6-39B9-4198-9448-B2B9B05325ED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{93B027ED-01CF-467B-BAD2-C20784902BDD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5EE3E862-BAEF-460B-B2FD-14C2D6C9062B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64045CE3-3B4E-466C-88DA-4EEEACE81A94}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00D1EDC1-2A5F-4D59-940D-93D9645EC89E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3AB2FAF3-C5A2-4BE4-9373-6F9A6D8D7A21}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D7097C98-7257-47D9-97AD-ACDFCC2BFA12}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E23F7011-0B33-4D22-9410-850FA060C54D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{22F98B8F-69A6-4281-8F68-66ECB0FC1964}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BEC067C2-6425-4212-A43E-E617A22F9BD6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2E78F24-53B6-4355-89AA-39FA29929CCD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5C66215D-4849-4E2E-B818-0D62DA6BEED6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DBF5B4E2-1EBD-4E18-800D-F3851BDC9BB2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0EA5B489-4F4C-4170-AC05-ADDC45AF8E49}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14208,7 +14208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EC91F3-44DE-4FCF-8DAB-B87D92DC3E71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C61B6C-16AF-4BB1-AAED-0DB96FDE165A}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -15473,17 +15473,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{393278D7-46C3-4DD1-A496-9486A6EDD7CE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8292CC6-7959-4322-B4A7-488703F038C5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{215C81D6-BE86-4984-A9BA-5114FE8048FD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E079C2DF-9502-4F60-B96E-0FFEB72D88FB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C2932A8D-B762-4612-970A-253C9A7FED28}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9AFB1A6F-346C-48B3-A457-C37E2EB7190D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F3FC5A46-6D7F-4171-8820-D0AAF589D5A4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29AECEA1-2D68-4B4C-A744-7FF7367015AE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5E0668B4-096A-48A8-8504-6F9CB075E4E0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BA638319-CE14-4983-8E21-01C14028690B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85D82A20-6E88-44A4-984B-93CDB9FE7D5C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4189E46C-46FE-40DB-807E-6C75DAEC2F30}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75318982-0A14-4490-90A7-998DE047FEF2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EE639322-0280-4FC0-A305-3BD8FE12BEA7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{895C3DD3-8BE3-45CE-9090-BCCBD886612C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D9B36259-3D88-419E-93CA-8879E3F1F118}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0E094DE2-A93A-412F-83EC-E0688D06A3F7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00651ABE-1138-4E7A-8E1E-0726894036DC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B59529E-979A-41DE-8A6C-1333E211B34C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A0BA537B-0778-4382-A507-7AD7FC65B9A8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{83FEF302-4B9C-4FD0-912D-7BD003F86E58}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{44DC4A03-D954-4B6E-BABA-B83CFC51D632}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15496,7 +15496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D454FF7-A7AD-4CEC-9B2F-6B8C2E311A03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EB1D93-F760-4799-A64F-C0F0324D838C}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -16755,17 +16755,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1455D9E3-CDB3-4FAB-BF50-8643DB05C31F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{521BF0AD-3214-4953-898D-F60824960E4F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{85C18476-D920-47A1-BF44-90987494DDC3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AB335377-21AE-4FE6-AA06-7C1334C18CDD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{13535AB8-DB47-4A60-BD8C-0501326A69BF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8445683E-3267-4824-851E-52F11521ABCB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C42EC83-8B9C-4433-B586-371AA433F12F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D86EF9D-4237-408E-ACF8-79EC9B7DD061}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BC4462CC-4969-4F03-8127-876A1D0645E1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4413BDA7-2EE2-4330-BD1D-7A9A6371D85F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{59B529D3-23F6-4688-AAB4-DC73FC6559B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39E2DAB7-4381-4011-A92F-C5DB01C1BDCE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{34FC4EDE-50CD-49F8-8108-4F22163394B7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1A1BE286-429C-430E-9B87-1595200EA30D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{27279F92-0FE9-4222-80C2-67885429AC09}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1CDE78F7-3D6D-4D37-9AB2-F33DA8E76CC7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F09C4D29-5818-4502-8D32-BD76E6D28C3A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9DE946E5-F32D-4ECC-A3D4-6E1532473C74}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3CC236B-0908-4D41-8394-6BFEF51DBA8D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BB840F12-4DAB-4CAA-B8CC-D880B88E9636}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{37C22721-1F27-43BA-BA43-7322DD925DA8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B446034-4250-4C5E-9CDB-3629CFFD6171}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
